--- a/election_votar_data/SATKANIA/KANCHANA/152394/152394_com_1268_male_without_photo_72_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/KANCHANA/152394/152394_com_1268_male_without_photo_72_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="47.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3003,10 +3003,14 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:২৫/১১/২০০৩</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>২৫/১১/২০০৩</t>
+        </is>
+      </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
           <t>আনু সং বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -5561,10 +5565,14 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্য তারিখ:১০/০৫/২০০৩</t>
-        </is>
-      </c>
-      <c r="G122" s="3" t="inlineStr"/>
+          <t>শ্রমিক</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>১০/০৫/২০০৩</t>
+        </is>
+      </c>
       <c r="H122" s="5" t="inlineStr">
         <is>
           <t>আফজলের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -7279,10 +7287,14 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/০২/২০০২</t>
-        </is>
-      </c>
-      <c r="G163" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G163" s="3" t="inlineStr">
+        <is>
+          <t>১৭/০২/২০০২</t>
+        </is>
+      </c>
       <c r="H163" s="5" t="inlineStr">
         <is>
           <t>আবুল কাশেম বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -8661,10 +8673,14 @@
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৮/০৭/২০০৩</t>
-        </is>
-      </c>
-      <c r="G196" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G196" s="3" t="inlineStr">
+        <is>
+          <t>১৮/০৭/২০০৩</t>
+        </is>
+      </c>
       <c r="H196" s="5" t="inlineStr">
         <is>
           <t>কবি মাষ্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -13991,10 +14007,14 @@
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>বেকার/জন্য তারিখ:১০/০৮/১৯৮৪</t>
-        </is>
-      </c>
-      <c r="G323" s="3" t="inlineStr"/>
+          <t>বেকার</t>
+        </is>
+      </c>
+      <c r="G323" s="3" t="inlineStr">
+        <is>
+          <t>১০/০৮/১৯৮৪</t>
+        </is>
+      </c>
       <c r="H323" s="5" t="inlineStr">
         <is>
           <t>চৌধুরী বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -16759,10 +16779,14 @@
       </c>
       <c r="F389" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/০১/২০০১</t>
-        </is>
-      </c>
-      <c r="G389" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G389" s="3" t="inlineStr">
+        <is>
+          <t>২৫/০১/২০০১</t>
+        </is>
+      </c>
       <c r="H389" s="5" t="inlineStr">
         <is>
           <t>জলিল মাষ্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -16923,10 +16947,14 @@
       </c>
       <c r="F393" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/১০/১৯৯৬</t>
-        </is>
-      </c>
-      <c r="G393" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G393" s="3" t="inlineStr">
+        <is>
+          <t>২৫/১০/১৯৯৬</t>
+        </is>
+      </c>
       <c r="H393" s="5" t="inlineStr">
         <is>
           <t>জলিল মাষ্টারের বাড়ি, মধ্য কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17507,10 +17535,14 @@
       </c>
       <c r="F407" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/১১/২০০২</t>
-        </is>
-      </c>
-      <c r="G407" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G407" s="3" t="inlineStr">
+        <is>
+          <t>১৭/১১/২০০২</t>
+        </is>
+      </c>
       <c r="H407" s="5" t="inlineStr">
         <is>
           <t>জলিল মাস্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17545,10 +17577,14 @@
       </c>
       <c r="F408" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্য তারিখ:০৬/০৭/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G408" s="3" t="inlineStr"/>
+          <t>শ্রমিক</t>
+        </is>
+      </c>
+      <c r="G408" s="3" t="inlineStr">
+        <is>
+          <t>০৬/০৭/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H408" s="5" t="inlineStr">
         <is>
           <t>জলিল মাস্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17625,10 +17661,14 @@
       </c>
       <c r="F410" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৯/১০/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G410" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G410" s="3" t="inlineStr">
+        <is>
+          <t>২৯/১০/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H410" s="5" t="inlineStr">
         <is>
           <t>জলিল মাস্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -20897,10 +20937,14 @@
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:১০/০৪/২০০১</t>
-        </is>
-      </c>
-      <c r="G488" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G488" s="3" t="inlineStr">
+        <is>
+          <t>১০/০৪/২০০১</t>
+        </is>
+      </c>
       <c r="H488" s="5" t="inlineStr">
         <is>
           <t>২৩৯, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -30133,10 +30177,14 @@
       </c>
       <c r="F708" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/০৫/২০০১</t>
-        </is>
-      </c>
-      <c r="G708" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G708" s="3" t="inlineStr">
+        <is>
+          <t>২৫/০৫/২০০১</t>
+        </is>
+      </c>
       <c r="H708" s="5" t="inlineStr">
         <is>
           <t>ফকির বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -42225,10 +42273,14 @@
       </c>
       <c r="F996" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৫/১১/২০০১</t>
-        </is>
-      </c>
-      <c r="G996" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G996" s="3" t="inlineStr">
+        <is>
+          <t>১৫/১১/২০০১</t>
+        </is>
+      </c>
       <c r="H996" s="5" t="inlineStr">
         <is>
           <t>মোঃ আলী বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -43019,10 +43071,14 @@
       </c>
       <c r="F1015" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্য তারিখ:০১/০৯/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G1015" s="3" t="inlineStr"/>
+          <t>ব্যবসা</t>
+        </is>
+      </c>
+      <c r="G1015" s="3" t="inlineStr">
+        <is>
+          <t>০১/০৯/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H1015" s="5" t="inlineStr">
         <is>
           <t>মোজাফর বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -44905,10 +44961,14 @@
       </c>
       <c r="F1060" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্য তারিখ:৩০/০৬/১৯৯৯</t>
-        </is>
-      </c>
-      <c r="G1060" s="3" t="inlineStr"/>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
+      <c r="G1060" s="3" t="inlineStr">
+        <is>
+          <t>৩০/০৬/১৯৯৯</t>
+        </is>
+      </c>
       <c r="H1060" s="5" t="inlineStr">
         <is>
           <t>শরীফ পাড়া, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -45111,10 +45171,14 @@
       </c>
       <c r="F1065" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/০৮/২০০০</t>
-        </is>
-      </c>
-      <c r="G1065" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G1065" s="3" t="inlineStr">
+        <is>
+          <t>২৫/০৮/২০০০</t>
+        </is>
+      </c>
       <c r="H1065" s="5" t="inlineStr">
         <is>
           <t>শরীফ পাড়া, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -45233,10 +45297,14 @@
       </c>
       <c r="F1068" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৩/০৬/২০০১</t>
-        </is>
-      </c>
-      <c r="G1068" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G1068" s="3" t="inlineStr">
+        <is>
+          <t>০৩/০৬/২০০১</t>
+        </is>
+      </c>
       <c r="H1068" s="5" t="inlineStr">
         <is>
           <t>শরীফ পাড়া, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -49597,10 +49665,14 @@
       </c>
       <c r="F1172" s="3" t="inlineStr">
         <is>
-          <t>প্রাবাসী/জন্য তারিখ:১৮/০৫/১৯৯৬</t>
-        </is>
-      </c>
-      <c r="G1172" s="3" t="inlineStr"/>
+          <t>প্রাবাসী</t>
+        </is>
+      </c>
+      <c r="G1172" s="3" t="inlineStr">
+        <is>
+          <t>১৮/০৫/১৯৯৬</t>
+        </is>
+      </c>
       <c r="H1172" s="5" t="inlineStr">
         <is>
           <t>সাহেব মিয়ার বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>

--- a/election_votar_data/SATKANIA/KANCHANA/152394/152394_com_1268_male_without_photo_72_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/KANCHANA/152394/152394_com_1268_male_without_photo_72_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="47.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3003,14 +3003,10 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>২৫/১১/২০০৩</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:২৫/১১/২০০৩</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr">
         <is>
           <t>আনু সং বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -5565,14 +5561,10 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
-        </is>
-      </c>
-      <c r="G122" s="3" t="inlineStr">
-        <is>
-          <t>১০/০৫/২০০৩</t>
-        </is>
-      </c>
+          <t>শ্রমিক/জন্য তারিখ:১০/০৫/২০০৩</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr"/>
       <c r="H122" s="5" t="inlineStr">
         <is>
           <t>আফজলের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -7287,14 +7279,10 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G163" s="3" t="inlineStr">
-        <is>
-          <t>১৭/০২/২০০২</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/০২/২০০২</t>
+        </is>
+      </c>
+      <c r="G163" s="3" t="inlineStr"/>
       <c r="H163" s="5" t="inlineStr">
         <is>
           <t>আবুল কাশেম বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -8673,14 +8661,10 @@
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G196" s="3" t="inlineStr">
-        <is>
-          <t>১৮/০৭/২০০৩</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৮/০৭/২০০৩</t>
+        </is>
+      </c>
+      <c r="G196" s="3" t="inlineStr"/>
       <c r="H196" s="5" t="inlineStr">
         <is>
           <t>কবি মাষ্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -14007,14 +13991,10 @@
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
-        </is>
-      </c>
-      <c r="G323" s="3" t="inlineStr">
-        <is>
-          <t>১০/০৮/১৯৮৪</t>
-        </is>
-      </c>
+          <t>বেকার/জন্য তারিখ:১০/০৮/১৯৮৪</t>
+        </is>
+      </c>
+      <c r="G323" s="3" t="inlineStr"/>
       <c r="H323" s="5" t="inlineStr">
         <is>
           <t>চৌধুরী বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -16779,14 +16759,10 @@
       </c>
       <c r="F389" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G389" s="3" t="inlineStr">
-        <is>
-          <t>২৫/০১/২০০১</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/০১/২০০১</t>
+        </is>
+      </c>
+      <c r="G389" s="3" t="inlineStr"/>
       <c r="H389" s="5" t="inlineStr">
         <is>
           <t>জলিল মাষ্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -16947,14 +16923,10 @@
       </c>
       <c r="F393" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G393" s="3" t="inlineStr">
-        <is>
-          <t>২৫/১০/১৯৯৬</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/১০/১৯৯৬</t>
+        </is>
+      </c>
+      <c r="G393" s="3" t="inlineStr"/>
       <c r="H393" s="5" t="inlineStr">
         <is>
           <t>জলিল মাষ্টারের বাড়ি, মধ্য কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17535,14 +17507,10 @@
       </c>
       <c r="F407" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G407" s="3" t="inlineStr">
-        <is>
-          <t>১৭/১১/২০০২</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৭/১১/২০০২</t>
+        </is>
+      </c>
+      <c r="G407" s="3" t="inlineStr"/>
       <c r="H407" s="5" t="inlineStr">
         <is>
           <t>জলিল মাস্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17577,14 +17545,10 @@
       </c>
       <c r="F408" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
-        </is>
-      </c>
-      <c r="G408" s="3" t="inlineStr">
-        <is>
-          <t>০৬/০৭/১৯৯৯</t>
-        </is>
-      </c>
+          <t>শ্রমিক/জন্য তারিখ:০৬/০৭/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G408" s="3" t="inlineStr"/>
       <c r="H408" s="5" t="inlineStr">
         <is>
           <t>জলিল মাস্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -17661,14 +17625,10 @@
       </c>
       <c r="F410" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G410" s="3" t="inlineStr">
-        <is>
-          <t>২৯/১০/১৯৯৯</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৯/১০/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G410" s="3" t="inlineStr"/>
       <c r="H410" s="5" t="inlineStr">
         <is>
           <t>জলিল মাস্টারের বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -20937,14 +20897,10 @@
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G488" s="3" t="inlineStr">
-        <is>
-          <t>১০/০৪/২০০১</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:১০/০৪/২০০১</t>
+        </is>
+      </c>
+      <c r="G488" s="3" t="inlineStr"/>
       <c r="H488" s="5" t="inlineStr">
         <is>
           <t>২৩৯, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -30177,14 +30133,10 @@
       </c>
       <c r="F708" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G708" s="3" t="inlineStr">
-        <is>
-          <t>২৫/০৫/২০০১</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/০৫/২০০১</t>
+        </is>
+      </c>
+      <c r="G708" s="3" t="inlineStr"/>
       <c r="H708" s="5" t="inlineStr">
         <is>
           <t>ফকির বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -42273,14 +42225,10 @@
       </c>
       <c r="F996" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G996" s="3" t="inlineStr">
-        <is>
-          <t>১৫/১১/২০০১</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:১৫/১১/২০০১</t>
+        </is>
+      </c>
+      <c r="G996" s="3" t="inlineStr"/>
       <c r="H996" s="5" t="inlineStr">
         <is>
           <t>মোঃ আলী বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -43071,14 +43019,10 @@
       </c>
       <c r="F1015" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
-        </is>
-      </c>
-      <c r="G1015" s="3" t="inlineStr">
-        <is>
-          <t>০১/০৯/১৯৯৯</t>
-        </is>
-      </c>
+          <t>ব্যবসা/জন্য তারিখ:০১/০৯/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G1015" s="3" t="inlineStr"/>
       <c r="H1015" s="5" t="inlineStr">
         <is>
           <t>মোজাফর বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -44961,14 +44905,10 @@
       </c>
       <c r="F1060" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
-      <c r="G1060" s="3" t="inlineStr">
-        <is>
-          <t>৩০/০৬/১৯৯৯</t>
-        </is>
-      </c>
+          <t>বেসরকারী চাকুরী/জন্য তারিখ:৩০/০৬/১৯৯৯</t>
+        </is>
+      </c>
+      <c r="G1060" s="3" t="inlineStr"/>
       <c r="H1060" s="5" t="inlineStr">
         <is>
           <t>শরীফ পাড়া, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -45171,14 +45111,10 @@
       </c>
       <c r="F1065" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G1065" s="3" t="inlineStr">
-        <is>
-          <t>২৫/০৮/২০০০</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:২৫/০৮/২০০০</t>
+        </is>
+      </c>
+      <c r="G1065" s="3" t="inlineStr"/>
       <c r="H1065" s="5" t="inlineStr">
         <is>
           <t>শরীফ পাড়া, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -45297,14 +45233,10 @@
       </c>
       <c r="F1068" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G1068" s="3" t="inlineStr">
-        <is>
-          <t>০৩/০৬/২০০১</t>
-        </is>
-      </c>
+          <t>ছাত্র/ছাত্রী/জন্য তারিখ:০৩/০৬/২০০১</t>
+        </is>
+      </c>
+      <c r="G1068" s="3" t="inlineStr"/>
       <c r="H1068" s="5" t="inlineStr">
         <is>
           <t>শরীফ পাড়া, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
@@ -49665,14 +49597,10 @@
       </c>
       <c r="F1172" s="3" t="inlineStr">
         <is>
-          <t>প্রাবাসী</t>
-        </is>
-      </c>
-      <c r="G1172" s="3" t="inlineStr">
-        <is>
-          <t>১৮/০৫/১৯৯৬</t>
-        </is>
-      </c>
+          <t>প্রাবাসী/জন্য তারিখ:১৮/০৫/১৯৯৬</t>
+        </is>
+      </c>
+      <c r="G1172" s="3" t="inlineStr"/>
       <c r="H1172" s="5" t="inlineStr">
         <is>
           <t>সাহেব মিয়ার বাড়ি, দক্ষিণ কাধুনা, কাধুনা, সাতকানিয়া, চট্টগ্রাম</t>
